--- a/Implementacion/Prueba1/resultados/Evaluacion.xlsx
+++ b/Implementacion/Prueba1/resultados/Evaluacion.xlsx
@@ -124,7 +124,7 @@
     </r>
   </si>
   <si>
-    <t>NCH -Proyecciones: 1000 -l: 0.5 -Extend: 0.5 -Threads: 10</t>
+    <t>NCH -Proyecciones: 2000 -l: 0.5 -Extend: 0.5 -Threads: 10</t>
   </si>
 </sst>
 </file>
@@ -184,7 +184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +227,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -256,7 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -298,6 +304,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -581,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:AP18"/>
+  <dimension ref="C3:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +604,7 @@
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="6" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" customWidth="1"/>
+    <col min="12" max="12" width="66.140625" customWidth="1"/>
     <col min="38" max="41" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -623,10 +635,10 @@
       <c r="I8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="17" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -649,10 +661,10 @@
       <c r="I9" s="11">
         <v>0.65</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="18">
         <v>0.9</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="18">
         <v>0.42</v>
       </c>
       <c r="L9" s="5" t="s">
@@ -675,10 +687,10 @@
       <c r="I10" s="11">
         <v>0.62</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="17">
         <v>0.05</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="18">
         <v>0.03</v>
       </c>
       <c r="L10" s="3" t="s">
@@ -701,10 +713,10 @@
       <c r="I11" s="11">
         <v>0.74</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="18">
         <v>0.31</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="18">
         <v>0.35</v>
       </c>
       <c r="L11" s="3" t="s">
@@ -727,10 +739,10 @@
       <c r="I12" s="11">
         <v>0.74</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="18">
         <v>0.09</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="18">
         <v>0.05</v>
       </c>
       <c r="L12" s="3" t="s">
@@ -753,10 +765,10 @@
       <c r="I13" s="11">
         <v>0.49</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="18">
         <v>3.13</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="17">
         <v>0.01</v>
       </c>
       <c r="L13" s="3" t="s">
@@ -779,10 +791,10 @@
       <c r="I14" s="11">
         <v>0.61</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="18">
         <v>99.83</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="18">
         <v>3.61</v>
       </c>
       <c r="L14" s="3" t="s">
@@ -794,22 +806,22 @@
         <v>6</v>
       </c>
       <c r="F15" s="12">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="G15" s="9">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="H15" s="15">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="I15" s="16">
-        <v>0.81</v>
-      </c>
-      <c r="J15" s="11">
-        <v>188.27</v>
-      </c>
-      <c r="K15" s="11">
-        <v>196.75</v>
+        <v>0.83</v>
+      </c>
+      <c r="J15" s="18">
+        <v>325.94</v>
+      </c>
+      <c r="K15" s="18">
+        <v>353.41</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>22</v>

--- a/Implementacion/Prueba1/resultados/Evaluacion.xlsx
+++ b/Implementacion/Prueba1/resultados/Evaluacion.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>AE</t>
   </si>
@@ -125,6 +125,65 @@
   </si>
   <si>
     <t>NCH -Proyecciones: 2000 -l: 0.5 -Extend: 0.5 -Threads: 10</t>
+  </si>
+  <si>
+    <t>MINIBOONE</t>
+  </si>
+  <si>
+    <t>AE -hidden layers: [5, 2, 5] -Epochs: 500 -Contamination: 0.2</t>
+  </si>
+  <si>
+    <t>IF -m_estimators: 15 -Contamination: 0.2 -Random state: 7</t>
+  </si>
+  <si>
+    <t>LOF -n_neighbors: 200 -Contamination: 0.2</t>
+  </si>
+  <si>
+    <t>OCSVM -Nu: 0.2 -Kernel: sigmoid -Gamma: auto</t>
+  </si>
+  <si>
+    <t>RC -Contamination: 0.2</t>
+  </si>
+  <si>
+    <t>NCH -Proyecciones: 1000 -l: 0.5 -Extend: 1.5 -Threads: 10</t>
+  </si>
+  <si>
+    <t>NCH -Proyecciones: 2000 -l: 1.25 -Extend: 1.5 -Threads: 10</t>
+  </si>
+  <si>
+    <t>NCH -Proyecciones: 500 -l: 1 -Extend: 1.5 -Threads: 10</t>
+  </si>
+  <si>
+    <t>MNIST</t>
+  </si>
+  <si>
+    <t>OCSVM -Nu: 0.02 -Kernel: poly -Gamma: auto</t>
+  </si>
+  <si>
+    <t>NCH -Proyecciones: 10 -l: 1 -Extend: 1.5 -Threads: 10</t>
+  </si>
+  <si>
+    <t>RC -Contamination: 0.05</t>
+  </si>
+  <si>
+    <t>IF -m_estimators: 50 -Contamination: 0.2 -Random state: 7</t>
+  </si>
+  <si>
+    <r>
+      <t>*Sorted by</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Similarity</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -184,7 +243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +292,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -262,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -310,6 +381,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -593,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:L18"/>
+  <dimension ref="C3:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,33 +906,464 @@
       </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="26">
         <v>0.91</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="27">
         <v>0.38</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="26">
         <v>0.77</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="26">
         <v>0.83</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="27">
         <v>325.94</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="27">
         <v>353.41</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="1"/>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E16" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="28">
+        <v>0.77</v>
+      </c>
+      <c r="G16" s="27">
+        <v>0.66</v>
+      </c>
+      <c r="H16" s="27">
+        <v>0.73</v>
+      </c>
+      <c r="I16" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="J16" s="27">
+        <v>93.45</v>
+      </c>
+      <c r="K16" s="27">
+        <v>154.44999999999999</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="27">
+        <v>0.71</v>
+      </c>
+      <c r="G17" s="27">
+        <v>0.73</v>
+      </c>
+      <c r="H17" s="27">
+        <v>0.71</v>
+      </c>
+      <c r="I17" s="27">
+        <v>0.71</v>
+      </c>
+      <c r="J17" s="27">
+        <v>37.21</v>
+      </c>
+      <c r="K17" s="27">
+        <v>48.95</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0.53</v>
+      </c>
+      <c r="G22" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="H22" s="21">
+        <v>0.62</v>
+      </c>
+      <c r="I22" s="22">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J22" s="23">
+        <v>16.8</v>
+      </c>
+      <c r="K22" s="23">
+        <v>4.3</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="19">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G23" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="H23" s="21">
+        <v>0.65</v>
+      </c>
+      <c r="I23" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="J23" s="17">
+        <v>0.82</v>
+      </c>
+      <c r="K23" s="23">
+        <v>0.38</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E24" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="19">
+        <v>0.43</v>
+      </c>
+      <c r="G24" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="H24" s="21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I24" s="22">
+        <v>0.49</v>
+      </c>
+      <c r="J24" s="23">
+        <v>432.51</v>
+      </c>
+      <c r="K24" s="23">
+        <v>307.47000000000003</v>
+      </c>
+      <c r="L24" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E25" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="G25" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="H25" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="I25" s="16">
+        <v>0.74</v>
+      </c>
+      <c r="J25" s="23">
+        <v>201.49</v>
+      </c>
+      <c r="K25" s="23">
+        <v>36.65</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E26" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="G26" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="H26" s="21">
+        <v>0.44</v>
+      </c>
+      <c r="I26" s="22">
+        <v>0.35</v>
+      </c>
+      <c r="J26" s="23">
+        <v>147.37</v>
+      </c>
+      <c r="K26" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="L26" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E27" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="25"/>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="19">
+        <v>0.59</v>
+      </c>
+      <c r="G28" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="H28" s="21">
+        <v>0.65</v>
+      </c>
+      <c r="I28" s="22">
+        <v>0.62</v>
+      </c>
+      <c r="J28" s="23">
+        <v>1237.67</v>
+      </c>
+      <c r="K28" s="23">
+        <v>3084.52</v>
+      </c>
+      <c r="L28" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E33" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E34" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="G34" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="H34" s="21">
+        <v>0.79</v>
+      </c>
+      <c r="I34" s="22">
+        <v>0.77</v>
+      </c>
+      <c r="J34" s="23">
+        <v>8.42</v>
+      </c>
+      <c r="K34" s="23">
+        <v>2.02</v>
+      </c>
+      <c r="L34" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E35" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="25"/>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E36" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="19">
+        <v>0.44</v>
+      </c>
+      <c r="G36" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="H36" s="21">
+        <v>0.79</v>
+      </c>
+      <c r="I36" s="22">
+        <v>0.82</v>
+      </c>
+      <c r="J36" s="23">
+        <v>126.26</v>
+      </c>
+      <c r="K36" s="23">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="L36" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E37" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="G37" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="H37" s="21">
+        <v>0.89</v>
+      </c>
+      <c r="I37" s="22">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J37" s="23">
+        <v>432.41</v>
+      </c>
+      <c r="K37" s="23">
+        <v>4.3</v>
+      </c>
+      <c r="L37" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E38" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="25"/>
+    </row>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E39" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="19">
+        <v>0.67</v>
+      </c>
+      <c r="G39" s="20">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H39" s="21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I39" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="J39" s="23">
+        <v>21.46</v>
+      </c>
+      <c r="K39" s="23">
+        <v>60.58</v>
+      </c>
+      <c r="L39" s="25" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Implementacion/Prueba1/resultados/Evaluacion.xlsx
+++ b/Implementacion/Prueba1/resultados/Evaluacion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
   <si>
     <r>
       <rPr>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>Especificidad</t>
+  </si>
+  <si>
+    <t>LOF -n_neighbors: 15 -Contamination: 0.2</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -514,9 +517,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -525,6 +525,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -876,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="D17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,22 +1451,22 @@
       <c r="E34" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="40">
         <v>0.75</v>
       </c>
       <c r="G34" s="26">
         <v>0.8</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="38">
         <v>0.79</v>
       </c>
       <c r="I34" s="24">
         <v>0.77</v>
       </c>
-      <c r="J34" s="25">
+      <c r="J34" s="36">
         <v>8.42</v>
       </c>
-      <c r="K34" s="25">
+      <c r="K34" s="36">
         <v>2.02</v>
       </c>
       <c r="L34" s="16" t="s">
@@ -1459,13 +1477,27 @@
       <c r="E35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="16"/>
+      <c r="F35" s="22">
+        <v>0.52</v>
+      </c>
+      <c r="G35" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="H35" s="23">
+        <v>0.77</v>
+      </c>
+      <c r="I35" s="24">
+        <v>0.63</v>
+      </c>
+      <c r="J35" s="25">
+        <v>343</v>
+      </c>
+      <c r="K35" s="25">
+        <v>172</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" s="11" t="s">
@@ -1474,13 +1506,13 @@
       <c r="F36" s="22">
         <v>0.44</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="39">
         <v>0.83</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="38">
         <v>0.79</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="37">
         <v>0.82</v>
       </c>
       <c r="J36" s="25">
@@ -1559,7 +1591,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1567,7 +1599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -1578,16 +1610,16 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="P4" s="33" t="s">
+      <c r="P4" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="33" t="s">
+      <c r="R4" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="33" t="s">
+      <c r="S4" s="32" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1612,16 +1644,16 @@
       <c r="F8" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
     </row>
     <row r="9" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="31" t="s">
         <v>45</v>
       </c>
       <c r="G9" s="28" t="s">
@@ -1639,10 +1671,10 @@
       <c r="K9" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="35" t="s">
+      <c r="O9" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="34">
+      <c r="P9" s="33">
         <f xml:space="preserve"> S5/(S5+R5)</f>
         <v>0.80617678381256652</v>
       </c>
@@ -1656,10 +1688,10 @@
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
-      <c r="O10" s="35" t="s">
+      <c r="O10" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="P10" s="34">
+      <c r="P10" s="33">
         <f xml:space="preserve"> P5/(P5+Q5)</f>
         <v>0.57843534657478723</v>
       </c>
@@ -1721,16 +1753,16 @@
       <c r="F18" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="31" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="28" t="s">

--- a/Implementacion/Prueba1/resultados/Evaluacion.xlsx
+++ b/Implementacion/Prueba1/resultados/Evaluacion.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="4" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="5" r:id="rId4"/>
+    <sheet name="Hoja5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913" refMode="R1C1" iterateDelta="1E-4"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="124">
   <si>
     <r>
       <rPr>
@@ -364,6 +366,122 @@
   <si>
     <t>Extend = 0</t>
   </si>
+  <si>
+    <t>Pruebas empleando un único normalizador antes de llevar a cabo las proyecciones</t>
+  </si>
+  <si>
+    <t>Pruebas empleando un normalizador sobre cada proyección de manera independiente</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>proy 3000</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>0.0005</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*Sorted by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>F1 Score</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.899067693554925, 0.309687880016214, 0.6043777867855695, 0.7112923052003923, 0.6944270507201004, 'AE -hidden layers: [6, 4, 6] -Epochs: 100 -Contamination: 0.7 -Tiempo train/test: 0.6258211000003939 0.31275360000108776']</t>
+  </si>
+  <si>
+    <t>AE -hidden layers: [10, 5, 10] -Epochs: 100 -Contamination: 0.4</t>
+  </si>
+  <si>
+    <t>IF -m_estimators: 15 -Contamination: 0.2 -Random state: 11</t>
+  </si>
+  <si>
+    <t>[1.0, 0.00040535062829347385, 0.5002026753141467, 0.6465899224957385, 0.6667567567567567, 'OCSVM -Nu: 0.001 -Kernel: rbf -Gamma: auto -Tiempo train/test: 6.595931999999991 2.244951999999998']</t>
+  </si>
+  <si>
+    <t>OCSVM -Nu: 0.1 -Kernel: rbf -Gamma: scale</t>
+  </si>
+  <si>
+    <t>[0.8313741386299148, 0.48763680583704905, 0.659505472233482, 0.7313262158660179, 0.7094430992736076, 'RC -Contamination: 0.5 -Tiempo train/test: 3.3747654000000082 0.003646400000008043']</t>
+  </si>
+  <si>
+    <t>RC -Contamination: 0.4</t>
+  </si>
+  <si>
+    <t>[0.9983785974868261, 0.013781921361978111, 0.5060802594244022, 0.6507441202525177, 0.6690207795735433, 'SVDD -positive_penalty: 0.1 -negative_penalty: 0.1 -kernel: 1 -Tiempo train/test: 111.22883869999998 3.0089662999999973']</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>99.85</t>
+  </si>
+  <si>
+    <t>Proyecciones: 3000 -l: 0.45 -Extend: 0.005 -Threads: 8</t>
+  </si>
+  <si>
+    <t>NCH -Proyecciones: 3000 -l: 0.5 -Extend: 0.0015 -Threads: 8</t>
+  </si>
+  <si>
+    <t>NCH -Proyecciones: 3000 -l: 0.35 -Extend: 0.0015 -Threads: 8</t>
+  </si>
+  <si>
+    <t>AE -hidden layers: [10, 5, 10] -Epochs: 100 -Contamination: 0.3</t>
+  </si>
+  <si>
+    <t>LOF -n_neighbors: 100 -Contamination: 0.35</t>
+  </si>
+  <si>
+    <t>[0.855, 0.5083333333333333, 0.6816666666666666, 0.7526529653390694, 0.7286931818181818, 'OCSVM -Nu: 0.5 -Kernel: rbf -Gamma: scale -Tiempo train/test: 3.4783299000000625 0.8451327999999876']</t>
+  </si>
+  <si>
+    <t>OCSVM -Nu: 0.2 -Kernel: rbf -Gamma: scale</t>
+  </si>
+  <si>
+    <t>RC -Contamination: 0.6</t>
+  </si>
+  <si>
+    <t>[0.93625, 0.18583333333333332, 0.5610416666666667, 0.6863533190811851, 0.6808059384941675, 'RC -Contamination: 0.8 -Tiempo train/test: 17.799590299999977 0.011177700000018831']</t>
+  </si>
+  <si>
+    <t>[1.0, 0.0, 0.5, 0.6464466094067263, 0.6666666666666666, 'SVDD -positive_penalty: 0.1 -negative_penalty: 0.1 -kernel: 1 -Tiempo train/test: 116.75524989999985 4.138479299999972']</t>
+  </si>
+  <si>
+    <t>6 conjuntos</t>
+  </si>
+  <si>
+    <t>2 10-fold, almacenar los 20 F1 scores y demás medidas para realizar el análisis estadístico más adelante</t>
+  </si>
+  <si>
+    <t>Leer los 2 surveys de Óscar y el que le va a pedir Bertha a Carlos. Intentar añadir algún método deep</t>
+  </si>
 </sst>
 </file>
 
@@ -373,7 +491,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* \-??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -436,8 +554,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,6 +678,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -615,7 +777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -734,6 +896,59 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -746,13 +961,7 @@
     <xf numFmtId="0" fontId="6" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -887,7 +1096,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -992,7 +1200,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1158,7 +1365,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1306,7 +1512,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1424,7 +1629,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1497,7 +1701,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1620,7 +1823,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1725,7 +1927,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1891,7 +2092,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2039,7 +2239,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2157,7 +2356,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2230,7 +2428,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2353,7 +2550,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2458,7 +2654,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2624,7 +2819,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2772,7 +2966,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2890,7 +3083,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2963,7 +3155,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3091,7 +3282,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3196,7 +3386,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3379,7 +3568,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3544,7 +3732,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3662,7 +3849,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3735,7 +3921,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3866,7 +4051,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3971,7 +4155,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4142,7 +4325,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4295,7 +4477,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4413,7 +4594,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4486,7 +4666,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4617,7 +4796,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4722,7 +4900,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4846,7 +5023,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4952,7 +5128,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5070,7 +5245,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5143,7 +5317,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8017,7 +8190,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8122,7 +8294,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8252,7 +8423,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8364,7 +8534,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8482,7 +8651,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8555,7 +8723,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8678,7 +8845,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8783,7 +8949,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8949,7 +9114,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9097,7 +9261,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9215,7 +9378,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9288,7 +9450,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9419,7 +9580,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9524,7 +9684,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9654,7 +9813,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9769,7 +9927,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9887,7 +10044,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9960,7 +10116,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10091,7 +10246,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10196,7 +10350,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10326,7 +10479,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10441,7 +10593,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10559,7 +10710,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10632,7 +10782,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10763,7 +10912,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10868,7 +11016,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10998,7 +11145,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11113,7 +11259,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11231,7 +11376,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11304,7 +11448,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11435,7 +11578,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11540,7 +11682,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11670,7 +11811,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11782,7 +11922,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11900,7 +12039,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11973,7 +12111,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12096,7 +12233,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12201,7 +12337,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12367,7 +12502,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12515,7 +12649,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12633,7 +12766,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12706,7 +12838,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12829,7 +12960,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12934,7 +13064,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13100,7 +13229,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13248,7 +13376,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13366,7 +13493,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13439,7 +13565,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13562,7 +13687,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13667,7 +13791,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13833,7 +13956,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13981,7 +14103,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14099,7 +14220,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14172,7 +14292,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14295,7 +14414,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14400,7 +14518,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14566,7 +14683,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14714,7 +14830,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14832,7 +14947,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14905,7 +15019,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15028,7 +15141,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15133,7 +15245,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15299,7 +15410,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15447,7 +15557,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15565,7 +15674,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15638,7 +15746,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15761,7 +15868,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15866,7 +15972,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -16032,7 +16137,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -16180,7 +16284,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16298,7 +16401,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16371,7 +16473,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16494,7 +16595,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16599,7 +16699,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -16765,7 +16864,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -16913,7 +17011,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17031,7 +17128,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17104,7 +17200,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -30518,8 +30613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31224,10 +31319,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:AD23"/>
+  <dimension ref="D2:AD23"/>
   <sheetViews>
-    <sheetView topLeftCell="L17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16:Z16"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31237,6 +31332,11 @@
     <col min="19" max="19" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D2" s="51" t="s">
+        <v>90</v>
+      </c>
+    </row>
     <row r="4" spans="4:30" x14ac:dyDescent="0.25">
       <c r="S4" s="34" t="s">
         <v>46</v>
@@ -31297,35 +31397,35 @@
       <c r="F8" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
       <c r="S8" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="T8" s="47" t="s">
+      <c r="T8" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="49"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="72"/>
     </row>
     <row r="9" spans="4:30" x14ac:dyDescent="0.25">
       <c r="F9" s="31" t="s">
@@ -32157,8 +32257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:BJ129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView topLeftCell="O17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:AO16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32229,21 +32329,21 @@
       <c r="F8" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="49"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="72"/>
       <c r="X8" s="30" t="s">
         <v>40</v>
       </c>
@@ -33002,22 +33102,22 @@
       </c>
     </row>
     <row r="68" spans="5:48" x14ac:dyDescent="0.25">
-      <c r="L68" s="51"/>
-      <c r="M68" s="52"/>
-      <c r="N68" s="51"/>
-      <c r="O68" s="53"/>
-      <c r="P68" s="53"/>
-      <c r="Q68" s="53"/>
-      <c r="R68" s="53"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="47"/>
+      <c r="O68" s="49"/>
+      <c r="P68" s="49"/>
+      <c r="Q68" s="49"/>
+      <c r="R68" s="49"/>
     </row>
     <row r="69" spans="5:48" x14ac:dyDescent="0.25">
-      <c r="L69" s="51"/>
-      <c r="M69" s="52"/>
-      <c r="N69" s="51"/>
-      <c r="O69" s="54"/>
-      <c r="P69" s="54"/>
-      <c r="Q69" s="54"/>
-      <c r="R69" s="54"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="47"/>
+      <c r="O69" s="50"/>
+      <c r="P69" s="50"/>
+      <c r="Q69" s="50"/>
+      <c r="R69" s="50"/>
     </row>
     <row r="79" spans="5:48" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
@@ -33224,68 +33324,68 @@
       </c>
     </row>
     <row r="116" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A116" s="50"/>
-      <c r="B116" s="50"/>
-      <c r="C116" s="50"/>
-      <c r="D116" s="50"/>
-      <c r="E116" s="50"/>
-      <c r="F116" s="50"/>
-      <c r="G116" s="50"/>
-      <c r="H116" s="50"/>
-      <c r="I116" s="50"/>
-      <c r="J116" s="50"/>
-      <c r="K116" s="50"/>
-      <c r="L116" s="50"/>
-      <c r="M116" s="50"/>
-      <c r="N116" s="50"/>
-      <c r="O116" s="50"/>
-      <c r="P116" s="50"/>
-      <c r="Q116" s="50"/>
-      <c r="R116" s="50"/>
-      <c r="S116" s="50"/>
-      <c r="T116" s="50"/>
-      <c r="U116" s="50"/>
-      <c r="V116" s="50"/>
-      <c r="W116" s="50"/>
-      <c r="X116" s="50"/>
-      <c r="Y116" s="50"/>
-      <c r="Z116" s="50"/>
-      <c r="AA116" s="50"/>
-      <c r="AB116" s="50"/>
-      <c r="AC116" s="50"/>
-      <c r="AD116" s="50"/>
-      <c r="AE116" s="50"/>
-      <c r="AF116" s="50"/>
-      <c r="AG116" s="50"/>
-      <c r="AH116" s="50"/>
-      <c r="AI116" s="50"/>
-      <c r="AJ116" s="50"/>
-      <c r="AK116" s="50"/>
-      <c r="AL116" s="50"/>
-      <c r="AM116" s="50"/>
-      <c r="AN116" s="50"/>
-      <c r="AO116" s="50"/>
-      <c r="AP116" s="50"/>
-      <c r="AQ116" s="50"/>
-      <c r="AR116" s="50"/>
-      <c r="AS116" s="50"/>
-      <c r="AT116" s="50"/>
-      <c r="AU116" s="50"/>
-      <c r="AV116" s="50"/>
-      <c r="AW116" s="50"/>
-      <c r="AX116" s="50"/>
-      <c r="AY116" s="50"/>
-      <c r="AZ116" s="50"/>
-      <c r="BA116" s="50"/>
-      <c r="BB116" s="50"/>
-      <c r="BC116" s="50"/>
-      <c r="BD116" s="50"/>
-      <c r="BE116" s="50"/>
-      <c r="BF116" s="50"/>
-      <c r="BG116" s="50"/>
-      <c r="BH116" s="50"/>
-      <c r="BI116" s="50"/>
-      <c r="BJ116" s="50"/>
+      <c r="A116" s="46"/>
+      <c r="B116" s="46"/>
+      <c r="C116" s="46"/>
+      <c r="D116" s="46"/>
+      <c r="E116" s="46"/>
+      <c r="F116" s="46"/>
+      <c r="G116" s="46"/>
+      <c r="H116" s="46"/>
+      <c r="I116" s="46"/>
+      <c r="J116" s="46"/>
+      <c r="K116" s="46"/>
+      <c r="L116" s="46"/>
+      <c r="M116" s="46"/>
+      <c r="N116" s="46"/>
+      <c r="O116" s="46"/>
+      <c r="P116" s="46"/>
+      <c r="Q116" s="46"/>
+      <c r="R116" s="46"/>
+      <c r="S116" s="46"/>
+      <c r="T116" s="46"/>
+      <c r="U116" s="46"/>
+      <c r="V116" s="46"/>
+      <c r="W116" s="46"/>
+      <c r="X116" s="46"/>
+      <c r="Y116" s="46"/>
+      <c r="Z116" s="46"/>
+      <c r="AA116" s="46"/>
+      <c r="AB116" s="46"/>
+      <c r="AC116" s="46"/>
+      <c r="AD116" s="46"/>
+      <c r="AE116" s="46"/>
+      <c r="AF116" s="46"/>
+      <c r="AG116" s="46"/>
+      <c r="AH116" s="46"/>
+      <c r="AI116" s="46"/>
+      <c r="AJ116" s="46"/>
+      <c r="AK116" s="46"/>
+      <c r="AL116" s="46"/>
+      <c r="AM116" s="46"/>
+      <c r="AN116" s="46"/>
+      <c r="AO116" s="46"/>
+      <c r="AP116" s="46"/>
+      <c r="AQ116" s="46"/>
+      <c r="AR116" s="46"/>
+      <c r="AS116" s="46"/>
+      <c r="AT116" s="46"/>
+      <c r="AU116" s="46"/>
+      <c r="AV116" s="46"/>
+      <c r="AW116" s="46"/>
+      <c r="AX116" s="46"/>
+      <c r="AY116" s="46"/>
+      <c r="AZ116" s="46"/>
+      <c r="BA116" s="46"/>
+      <c r="BB116" s="46"/>
+      <c r="BC116" s="46"/>
+      <c r="BD116" s="46"/>
+      <c r="BE116" s="46"/>
+      <c r="BF116" s="46"/>
+      <c r="BG116" s="46"/>
+      <c r="BH116" s="46"/>
+      <c r="BI116" s="46"/>
+      <c r="BJ116" s="46"/>
     </row>
     <row r="119" spans="1:62" x14ac:dyDescent="0.25">
       <c r="D119" s="4" t="s">
@@ -33328,24 +33428,24 @@
     </row>
     <row r="122" spans="1:62" x14ac:dyDescent="0.25">
       <c r="F122" s="30"/>
-      <c r="G122" s="47" t="s">
+      <c r="G122" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="H122" s="48"/>
-      <c r="I122" s="48"/>
-      <c r="J122" s="48"/>
-      <c r="K122" s="48"/>
-      <c r="L122" s="48"/>
-      <c r="M122" s="48"/>
-      <c r="N122" s="48"/>
-      <c r="O122" s="48"/>
-      <c r="P122" s="48"/>
-      <c r="Q122" s="48"/>
-      <c r="R122" s="48"/>
-      <c r="S122" s="48"/>
-      <c r="T122" s="48"/>
-      <c r="U122" s="48"/>
-      <c r="V122" s="49"/>
+      <c r="H122" s="71"/>
+      <c r="I122" s="71"/>
+      <c r="J122" s="71"/>
+      <c r="K122" s="71"/>
+      <c r="L122" s="71"/>
+      <c r="M122" s="71"/>
+      <c r="N122" s="71"/>
+      <c r="O122" s="71"/>
+      <c r="P122" s="71"/>
+      <c r="Q122" s="71"/>
+      <c r="R122" s="71"/>
+      <c r="S122" s="71"/>
+      <c r="T122" s="71"/>
+      <c r="U122" s="71"/>
+      <c r="V122" s="72"/>
       <c r="X122" s="30"/>
       <c r="Y122" s="43" t="s">
         <v>38</v>
@@ -33819,4 +33919,4182 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AC33"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D2" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+    </row>
+    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="V3" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3" s="56">
+        <f xml:space="preserve"> AA4/(AA4+Z4)</f>
+        <v>0.69696969696969702</v>
+      </c>
+      <c r="X3" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA3" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="V4" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="56">
+        <f xml:space="preserve"> X4/(X4+Y4)</f>
+        <v>0.71341710579651396</v>
+      </c>
+      <c r="X4" s="27">
+        <v>1760</v>
+      </c>
+      <c r="Y4" s="27">
+        <v>707</v>
+      </c>
+      <c r="Z4" s="27">
+        <v>1000</v>
+      </c>
+      <c r="AA4" s="27">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="V5" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="W5" s="56">
+        <f xml:space="preserve">  AA4/(AA4+Y4)</f>
+        <v>0.76488194213501826</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="V6" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="W6" s="56">
+        <f xml:space="preserve"> AA4/(AA4+(Y4+Z4)*0.5)</f>
+        <v>0.72934834311082919</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="54"/>
+    </row>
+    <row r="9" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D9" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="V9" s="57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D10" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="M10" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="72"/>
+      <c r="V10" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="W10" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="72"/>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D11" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="S11" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="T11" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="V11" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="W11" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="X11" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y11" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z11" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA11" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB11" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC11" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D12" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="27">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="G12" s="27">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="H12" s="27">
+        <v>0.752</v>
+      </c>
+      <c r="I12" s="27">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="J12" s="27">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="K12" s="27">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="27">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="O12" s="27">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="P12" s="27">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="Q12" s="27">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="R12" s="27">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="S12" s="27">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="T12" s="27">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="V12" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="AC12" s="27">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D13" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="F13" s="27">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="G13" s="27">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="H13" s="27">
+        <v>0.754</v>
+      </c>
+      <c r="I13" s="27">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="J13" s="27">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="K13" s="27">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" s="27">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="O13" s="27">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="P13" s="27">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="Q13" s="27">
+        <v>0.626</v>
+      </c>
+      <c r="R13" s="27">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="S13" s="27">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="T13" s="27">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="V13" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D14" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="27">
+        <v>1</v>
+      </c>
+      <c r="F14" s="27">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="G14" s="27">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="H14" s="27">
+        <v>0.877</v>
+      </c>
+      <c r="I14" s="27">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="J14" s="27">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="K14" s="27">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" s="27">
+        <v>0</v>
+      </c>
+      <c r="O14" s="27">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="P14" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="Q14" s="27">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="R14" s="27">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="S14" s="27">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="T14" s="27">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="V14" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="27">
+        <v>1</v>
+      </c>
+      <c r="F15" s="27">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="G15" s="27">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="H15" s="27">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="I15" s="27">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="J15" s="27">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="K15" s="27">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" s="27">
+        <v>0</v>
+      </c>
+      <c r="O15" s="27">
+        <v>2.7E-2</v>
+      </c>
+      <c r="P15" s="27">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="Q15" s="27">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="R15" s="27">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="S15" s="27">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="T15" s="27">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="V15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D16" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="27">
+        <v>1</v>
+      </c>
+      <c r="F16" s="27">
+        <v>1</v>
+      </c>
+      <c r="G16" s="27">
+        <v>1</v>
+      </c>
+      <c r="H16" s="27">
+        <v>0.874</v>
+      </c>
+      <c r="I16" s="27">
+        <v>0.998</v>
+      </c>
+      <c r="J16" s="27">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="K16" s="27">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" s="27">
+        <v>0</v>
+      </c>
+      <c r="O16" s="27">
+        <v>0</v>
+      </c>
+      <c r="P16" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="27">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="R16" s="27">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="S16" s="27">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="T16" s="27">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="V16" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+    </row>
+    <row r="17" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D17" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="27">
+        <v>1</v>
+      </c>
+      <c r="F17" s="27">
+        <v>1</v>
+      </c>
+      <c r="G17" s="27">
+        <v>1</v>
+      </c>
+      <c r="H17" s="27">
+        <v>1</v>
+      </c>
+      <c r="I17" s="27">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J17" s="27">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="K17" s="27">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" s="27">
+        <v>0</v>
+      </c>
+      <c r="O17" s="27">
+        <v>0</v>
+      </c>
+      <c r="P17" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="27">
+        <v>0</v>
+      </c>
+      <c r="R17" s="27">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="S17" s="27">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="T17" s="27">
+        <v>1.9E-2</v>
+      </c>
+      <c r="V17" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+    </row>
+    <row r="18" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D18" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="27">
+        <v>1</v>
+      </c>
+      <c r="F18" s="27">
+        <v>1</v>
+      </c>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="27">
+        <v>1</v>
+      </c>
+      <c r="I18" s="27">
+        <v>1</v>
+      </c>
+      <c r="J18" s="27">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="K18" s="27">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" s="27">
+        <v>0</v>
+      </c>
+      <c r="O18" s="27">
+        <v>0</v>
+      </c>
+      <c r="P18" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="27">
+        <v>0</v>
+      </c>
+      <c r="R18" s="27">
+        <v>0</v>
+      </c>
+      <c r="S18" s="27">
+        <v>3.9E-2</v>
+      </c>
+      <c r="T18" s="27">
+        <v>0.189</v>
+      </c>
+      <c r="V18" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+    </row>
+    <row r="19" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D19" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="27">
+        <v>1</v>
+      </c>
+      <c r="F19" s="27">
+        <v>1</v>
+      </c>
+      <c r="G19" s="27">
+        <v>1</v>
+      </c>
+      <c r="H19" s="27">
+        <v>1</v>
+      </c>
+      <c r="I19" s="27">
+        <v>1</v>
+      </c>
+      <c r="J19" s="27">
+        <v>1</v>
+      </c>
+      <c r="K19" s="27">
+        <v>1</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" s="27">
+        <v>0</v>
+      </c>
+      <c r="O19" s="27">
+        <v>0</v>
+      </c>
+      <c r="P19" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="27">
+        <v>0</v>
+      </c>
+      <c r="R19" s="27">
+        <v>0</v>
+      </c>
+      <c r="S19" s="27">
+        <v>0</v>
+      </c>
+      <c r="T19" s="27">
+        <v>0</v>
+      </c>
+      <c r="V19" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+    </row>
+    <row r="23" spans="4:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D23" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D24" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="72"/>
+      <c r="M24" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="N24" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="72"/>
+      <c r="V24" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="W24" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="71"/>
+      <c r="AC24" s="72"/>
+    </row>
+    <row r="25" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D25" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="M25" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="O25" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q25" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="R25" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="S25" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="T25" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="V25" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="W25" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="X25" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y25" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z25" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA25" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB25" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC25" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D26" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="27">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="F26" s="27">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="G26" s="27">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="H26" s="27">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="I26" s="27">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="J26" s="27">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="K26" s="27">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="N26" s="27">
+        <f xml:space="preserve"> 1 - ((SQRT((1-W12)*(1-W12)+(1-E12)*(1-E12)))/(SQRT(2)))</f>
+        <v>0.29273731895426591</v>
+      </c>
+      <c r="O26" s="27">
+        <f t="shared" ref="O26" si="0" xml:space="preserve"> 1 - ((SQRT((1-X12)*(1-X12)+(1-F12)*(1-F12)))/(SQRT(2)))</f>
+        <v>0.27818804387846285</v>
+      </c>
+      <c r="P26" s="27">
+        <f t="shared" ref="P26" si="1" xml:space="preserve"> 1 - ((SQRT((1-Y12)*(1-Y12)+(1-G12)*(1-G12)))/(SQRT(2)))</f>
+        <v>0.27264829690169834</v>
+      </c>
+      <c r="Q26" s="27">
+        <f t="shared" ref="Q26" si="2" xml:space="preserve"> 1 - ((SQRT((1-Z12)*(1-Z12)+(1-H12)*(1-H12)))/(SQRT(2)))</f>
+        <v>0.2714727184243545</v>
+      </c>
+      <c r="R26" s="27">
+        <f t="shared" ref="R26" si="3" xml:space="preserve"> 1 - ((SQRT((1-AA12)*(1-AA12)+(1-I12)*(1-I12)))/(SQRT(2)))</f>
+        <v>0.26720262009202034</v>
+      </c>
+      <c r="S26" s="27">
+        <f t="shared" ref="S26" si="4" xml:space="preserve"> 1 - ((SQRT((1-AB12)*(1-AB12)+(1-J12)*(1-J12)))/(SQRT(2)))</f>
+        <v>0.81089024350922556</v>
+      </c>
+      <c r="T26" s="27">
+        <f t="shared" ref="T26" si="5" xml:space="preserve"> 1 - ((SQRT((1-AC12)*(1-AC12)+(1-K12)*(1-K12)))/(SQRT(2)))</f>
+        <v>0.76924796858965683</v>
+      </c>
+      <c r="V26" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="W26" s="27">
+        <f xml:space="preserve"> (2*W12*E12)/(W12+E12)</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="27">
+        <f t="shared" ref="X26:AC26" si="6" xml:space="preserve"> (2*X12*F12)/(X12+F12)</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="27">
+        <f t="shared" si="6"/>
+        <v>0.81338810545677498</v>
+      </c>
+      <c r="AC26" s="27">
+        <f t="shared" si="6"/>
+        <v>0.77582409177820266</v>
+      </c>
+    </row>
+    <row r="27" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D27" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="27">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="F27" s="27">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="G27" s="27">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="H27" s="27">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="I27" s="27">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="J27" s="27">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="K27" s="27">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="N27" s="27">
+        <f xml:space="preserve"> 1 - ((SQRT((1-W13)*(1-W13)+(1-E13)*(1-E13)))/(SQRT(2)))</f>
+        <v>0.29016058153974011</v>
+      </c>
+      <c r="O27" s="27">
+        <f t="shared" ref="O27:T27" si="7" xml:space="preserve"> 1 - ((SQRT((1-X13)*(1-X13)+(1-F13)*(1-F13)))/(SQRT(2)))</f>
+        <v>0.27717775352442287</v>
+      </c>
+      <c r="P27" s="27">
+        <f t="shared" si="7"/>
+        <v>0.27330577269390688</v>
+      </c>
+      <c r="Q27" s="27">
+        <f t="shared" si="7"/>
+        <v>0.27181183750352</v>
+      </c>
+      <c r="R27" s="27">
+        <f t="shared" si="7"/>
+        <v>0.26866697052573918</v>
+      </c>
+      <c r="S27" s="27">
+        <f t="shared" si="7"/>
+        <v>0.26512279937393635</v>
+      </c>
+      <c r="T27" s="27">
+        <f t="shared" si="7"/>
+        <v>0.26155535075403247</v>
+      </c>
+      <c r="V27" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="W27" s="27">
+        <f t="shared" ref="W27:W33" si="8" xml:space="preserve"> (2*W13*E13)/(W13+E13)</f>
+        <v>0</v>
+      </c>
+      <c r="X27" s="27">
+        <f t="shared" ref="X27:X33" si="9" xml:space="preserve"> (2*X13*F13)/(X13+F13)</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="27">
+        <f t="shared" ref="Y27:Y33" si="10" xml:space="preserve"> (2*Y13*G13)/(Y13+G13)</f>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="27">
+        <f t="shared" ref="Z27:Z33" si="11" xml:space="preserve"> (2*Z13*H13)/(Z13+H13)</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="27">
+        <f t="shared" ref="AA27:AA33" si="12" xml:space="preserve"> (2*AA13*I13)/(AA13+I13)</f>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="27">
+        <f t="shared" ref="AB27:AB33" si="13" xml:space="preserve"> (2*AB13*J13)/(AB13+J13)</f>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="27">
+        <f t="shared" ref="AC27:AC33" si="14" xml:space="preserve"> (2*AC13*K13)/(AC13+K13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D28" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="F28" s="27">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="G28" s="27">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="H28" s="27">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="I28" s="27">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="J28" s="27">
+        <v>0.72</v>
+      </c>
+      <c r="K28" s="27">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="M28" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="N28" s="27">
+        <f t="shared" ref="N28:N33" si="15" xml:space="preserve"> 1 - ((SQRT((1-W14)*(1-W14)+(1-E14)*(1-E14)))/(SQRT(2)))</f>
+        <v>0.29289321881345254</v>
+      </c>
+      <c r="O28" s="27">
+        <f t="shared" ref="O28:O33" si="16" xml:space="preserve"> 1 - ((SQRT((1-X14)*(1-X14)+(1-F14)*(1-F14)))/(SQRT(2)))</f>
+        <v>0.27775904297803766</v>
+      </c>
+      <c r="P28" s="27">
+        <f t="shared" ref="P28:P33" si="17" xml:space="preserve"> 1 - ((SQRT((1-Y14)*(1-Y14)+(1-G14)*(1-G14)))/(SQRT(2)))</f>
+        <v>0.29166356863422593</v>
+      </c>
+      <c r="Q28" s="27">
+        <f t="shared" ref="Q28:Q33" si="18" xml:space="preserve"> 1 - ((SQRT((1-Z14)*(1-Z14)+(1-H14)*(1-H14)))/(SQRT(2)))</f>
+        <v>0.28756438887433478</v>
+      </c>
+      <c r="R28" s="27">
+        <f t="shared" ref="R28:R33" si="19" xml:space="preserve"> 1 - ((SQRT((1-AA14)*(1-AA14)+(1-I14)*(1-I14)))/(SQRT(2)))</f>
+        <v>0.26830470822889674</v>
+      </c>
+      <c r="S28" s="27">
+        <f t="shared" ref="S28:S33" si="20" xml:space="preserve"> 1 - ((SQRT((1-AB14)*(1-AB14)+(1-J14)*(1-J14)))/(SQRT(2)))</f>
+        <v>0.2857997479698009</v>
+      </c>
+      <c r="T28" s="27">
+        <f t="shared" ref="T28:T33" si="21" xml:space="preserve"> 1 - ((SQRT((1-AC14)*(1-AC14)+(1-K14)*(1-K14)))/(SQRT(2)))</f>
+        <v>0.26135123367056246</v>
+      </c>
+      <c r="V28" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="W28" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D29" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="F29" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="G29" s="27">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="H29" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="I29" s="27">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="J29" s="27">
+        <v>0.72</v>
+      </c>
+      <c r="K29" s="27">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="M29" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="N29" s="27">
+        <f t="shared" si="15"/>
+        <v>0.29289321881345254</v>
+      </c>
+      <c r="O29" s="27">
+        <f t="shared" si="16"/>
+        <v>0.29283347081468847</v>
+      </c>
+      <c r="P29" s="27">
+        <f t="shared" si="17"/>
+        <v>0.29153546313171053</v>
+      </c>
+      <c r="Q29" s="27">
+        <f t="shared" si="18"/>
+        <v>0.29259594290108859</v>
+      </c>
+      <c r="R29" s="27">
+        <f t="shared" si="19"/>
+        <v>0.29285044014720629</v>
+      </c>
+      <c r="S29" s="27">
+        <f t="shared" si="20"/>
+        <v>0.28549842547409321</v>
+      </c>
+      <c r="T29" s="27">
+        <f t="shared" si="21"/>
+        <v>0.28466476390436357</v>
+      </c>
+      <c r="V29" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="W29" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D30" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="F30" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="G30" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="H30" s="27">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="I30" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="J30" s="27">
+        <v>0.72</v>
+      </c>
+      <c r="K30" s="27">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="N30" s="27">
+        <f t="shared" si="15"/>
+        <v>0.29289321881345254</v>
+      </c>
+      <c r="O30" s="27">
+        <f t="shared" si="16"/>
+        <v>0.29289321881345254</v>
+      </c>
+      <c r="P30" s="27">
+        <f t="shared" si="17"/>
+        <v>0.29289321881345254</v>
+      </c>
+      <c r="Q30" s="27">
+        <f t="shared" si="18"/>
+        <v>0.28730230812777291</v>
+      </c>
+      <c r="R30" s="27">
+        <f t="shared" si="19"/>
+        <v>0.29289180460130448</v>
+      </c>
+      <c r="S30" s="27">
+        <f t="shared" si="20"/>
+        <v>0.29101163620268078</v>
+      </c>
+      <c r="T30" s="27">
+        <f t="shared" si="21"/>
+        <v>0.28444951261284168</v>
+      </c>
+      <c r="V30" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="W30" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X30" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D31" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="F31" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="G31" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="H31" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="I31" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="J31" s="27">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="K31" s="27">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="M31" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="N31" s="27">
+        <f t="shared" si="15"/>
+        <v>0.29289321881345254</v>
+      </c>
+      <c r="O31" s="27">
+        <f t="shared" si="16"/>
+        <v>0.29289321881345254</v>
+      </c>
+      <c r="P31" s="27">
+        <f t="shared" si="17"/>
+        <v>0.29289321881345254</v>
+      </c>
+      <c r="Q31" s="27">
+        <f t="shared" si="18"/>
+        <v>0.29289321881345254</v>
+      </c>
+      <c r="R31" s="27">
+        <f t="shared" si="19"/>
+        <v>0.29288049100594049</v>
+      </c>
+      <c r="S31" s="27">
+        <f t="shared" si="20"/>
+        <v>0.29246024846656138</v>
+      </c>
+      <c r="T31" s="27">
+        <f t="shared" si="21"/>
+        <v>0.29284230895789587</v>
+      </c>
+      <c r="V31" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="W31" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X31" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D32" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="F32" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="G32" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="H32" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="I32" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="J32" s="27">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="K32" s="27">
+        <v>0.72</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N32" s="27">
+        <f t="shared" si="15"/>
+        <v>0.29289321881345254</v>
+      </c>
+      <c r="O32" s="27">
+        <f t="shared" si="16"/>
+        <v>0.29289321881345254</v>
+      </c>
+      <c r="P32" s="27">
+        <f t="shared" si="17"/>
+        <v>0.29289321881345254</v>
+      </c>
+      <c r="Q32" s="27">
+        <f t="shared" si="18"/>
+        <v>0.29289321881345254</v>
+      </c>
+      <c r="R32" s="27">
+        <f t="shared" si="19"/>
+        <v>0.29289321881345254</v>
+      </c>
+      <c r="S32" s="27">
+        <f t="shared" si="20"/>
+        <v>0.29273731895426591</v>
+      </c>
+      <c r="T32" s="27">
+        <f t="shared" si="21"/>
+        <v>0.29057734741551999</v>
+      </c>
+      <c r="V32" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="W32" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X32" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D33" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="F33" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="G33" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="H33" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="I33" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="J33" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="K33" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N33" s="27">
+        <f t="shared" si="15"/>
+        <v>0.29289321881345254</v>
+      </c>
+      <c r="O33" s="27">
+        <f t="shared" si="16"/>
+        <v>0.29289321881345254</v>
+      </c>
+      <c r="P33" s="27">
+        <f t="shared" si="17"/>
+        <v>0.29289321881345254</v>
+      </c>
+      <c r="Q33" s="27">
+        <f t="shared" si="18"/>
+        <v>0.29289321881345254</v>
+      </c>
+      <c r="R33" s="27">
+        <f t="shared" si="19"/>
+        <v>0.29289321881345254</v>
+      </c>
+      <c r="S33" s="27">
+        <f t="shared" si="20"/>
+        <v>0.29289321881345254</v>
+      </c>
+      <c r="T33" s="27">
+        <f t="shared" si="21"/>
+        <v>0.29289321881345254</v>
+      </c>
+      <c r="V33" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W33" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X33" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="N24:T24"/>
+    <mergeCell ref="W24:AC24"/>
+    <mergeCell ref="W10:AC10"/>
+    <mergeCell ref="N10:T10"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="E24:K24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AC70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D2" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="N3" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="56">
+        <f xml:space="preserve"> S4/(S4+R4)</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="N4" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="56">
+        <f xml:space="preserve"> P4/(P4+Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="27">
+        <v>100</v>
+      </c>
+      <c r="R4" s="27">
+        <v>0</v>
+      </c>
+      <c r="S4" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="N5" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="O5" s="56">
+        <f xml:space="preserve">  S4/(S4+Q4)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="N6" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="O6" s="56">
+        <f xml:space="preserve"> S4/(S4+(Q4+R4)*0.5)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="54"/>
+    </row>
+    <row r="9" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="M10" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="V10" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="W10" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="72"/>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="S11" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="T11" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="V11" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="W11" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="X11" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y11" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z11" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA11" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB11" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC11" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C12" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="59">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F12" s="60">
+        <v>0.61</v>
+      </c>
+      <c r="G12" s="61">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H12" s="62">
+        <v>1.26</v>
+      </c>
+      <c r="I12" s="62">
+        <v>0.33</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" s="27">
+        <v>0.749</v>
+      </c>
+      <c r="O12" s="27">
+        <v>0.73</v>
+      </c>
+      <c r="P12" s="27">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="Q12" s="32">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="R12" s="27">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="S12" s="27">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="T12" s="27">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="V12" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="W12" s="27">
+        <v>0.624</v>
+      </c>
+      <c r="X12" s="27">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="Y12" s="27">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="Z12" s="32">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="AA12" s="27">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="AB12" s="27">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="AC12" s="27">
+        <v>0.77300000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="59">
+        <v>0.6</v>
+      </c>
+      <c r="F13" s="60">
+        <v>0.8</v>
+      </c>
+      <c r="G13" s="61">
+        <v>0.67</v>
+      </c>
+      <c r="H13" s="35">
+        <v>0.06</v>
+      </c>
+      <c r="I13" s="62">
+        <v>0.02</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="27">
+        <v>0.745</v>
+      </c>
+      <c r="O13" s="27">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="P13" s="27">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="Q13" s="27">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="R13" s="27">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="S13" s="27">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="T13" s="27">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="V13" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="W13" s="27">
+        <v>0.629</v>
+      </c>
+      <c r="X13" s="27">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="Y13" s="27">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="Z13" s="27">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="AA13" s="27">
+        <v>0.73240000000000005</v>
+      </c>
+      <c r="AB13" s="27">
+        <v>0.755</v>
+      </c>
+      <c r="AC13" s="27">
+        <v>0.78300000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="59">
+        <v>0.68</v>
+      </c>
+      <c r="F14" s="38">
+        <v>0.78</v>
+      </c>
+      <c r="G14" s="37">
+        <v>0.71</v>
+      </c>
+      <c r="H14" s="62">
+        <v>0.21</v>
+      </c>
+      <c r="I14" s="62">
+        <v>0.12</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="27">
+        <v>0.875</v>
+      </c>
+      <c r="O14" s="27">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="P14" s="27">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="Q14" s="27">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="R14" s="27">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="S14" s="27">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="T14" s="27">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="V14" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="W14" s="27">
+        <v>0.312</v>
+      </c>
+      <c r="X14" s="27">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="Y14" s="27">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="Z14" s="27">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="AA14" s="27">
+        <v>0.745</v>
+      </c>
+      <c r="AB14" s="27">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="AC14" s="27">
+        <v>0.77900000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C15" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="59">
+        <v>0.39</v>
+      </c>
+      <c r="F15" s="60">
+        <v>0.9</v>
+      </c>
+      <c r="G15" s="61">
+        <v>0.53</v>
+      </c>
+      <c r="H15" s="62">
+        <v>0.33</v>
+      </c>
+      <c r="I15" s="62">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="N15" s="27">
+        <v>0.752</v>
+      </c>
+      <c r="O15" s="27">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="P15" s="27">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="Q15" s="27">
+        <v>0.85</v>
+      </c>
+      <c r="R15" s="27">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="S15" s="27">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="T15" s="27">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="V15" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="W15" s="27">
+        <v>0.621</v>
+      </c>
+      <c r="X15" s="27">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="Y15" s="27">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="Z15" s="27">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="AA15" s="27">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="AB15" s="27">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="AC15" s="27">
+        <v>0.77700000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C16" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="39">
+        <v>0.74</v>
+      </c>
+      <c r="F16" s="60">
+        <v>0.6</v>
+      </c>
+      <c r="G16" s="61">
+        <v>0.69</v>
+      </c>
+      <c r="H16" s="62">
+        <v>3.29</v>
+      </c>
+      <c r="I16" s="35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" s="27">
+        <v>1</v>
+      </c>
+      <c r="O16" s="27">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="P16" s="27">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="Q16" s="27">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="R16" s="27">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="S16" s="27">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="T16" s="27">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="V16" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="W16" s="27">
+        <v>0</v>
+      </c>
+      <c r="X16" s="27">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="Y16" s="27">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="Z16" s="27">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="AA16" s="27">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="AB16" s="27">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="AC16" s="27">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C17" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="59">
+        <v>0.6</v>
+      </c>
+      <c r="F17" s="60">
+        <v>0.68</v>
+      </c>
+      <c r="G17" s="61">
+        <v>0.62</v>
+      </c>
+      <c r="H17" s="62">
+        <v>99.83</v>
+      </c>
+      <c r="I17" s="62">
+        <v>3.61</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" s="27">
+        <v>1</v>
+      </c>
+      <c r="O17" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="P17" s="27">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="Q17" s="27">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="R17" s="27">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="S17" s="27">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="T17" s="27">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="V17" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="W17" s="27">
+        <v>0</v>
+      </c>
+      <c r="X17" s="27">
+        <v>1.9E-2</v>
+      </c>
+      <c r="Y17" s="27">
+        <v>0.156</v>
+      </c>
+      <c r="Z17" s="27">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="AA17" s="27">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="AB17" s="27">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="AC17" s="27">
+        <v>0.38100000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="63">
+        <v>645.04</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="N18" s="27">
+        <v>1</v>
+      </c>
+      <c r="O18" s="27">
+        <v>0.996</v>
+      </c>
+      <c r="P18" s="27">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="Q18" s="27">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="R18" s="27">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="S18" s="27">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="T18" s="27">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="V18" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="W18" s="27">
+        <v>0</v>
+      </c>
+      <c r="X18" s="27">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Y18" s="27">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="Z18" s="27">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="AA18" s="27">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="AB18" s="27">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AC18" s="27">
+        <v>0.39700000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M22" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="V22" s="58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="M23" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="N23" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="72"/>
+      <c r="V23" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="W23" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="72"/>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="M24" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="O24" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q24" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="R24" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="S24" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="T24" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="V24" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="W24" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="X24" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y24" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z24" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA24" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB24" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC24" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="M25" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="N25" s="27">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="O25" s="27">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="P25" s="27">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="Q25" s="32">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="R25" s="27">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="S25" s="27">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="T25" s="27">
+        <v>0.746</v>
+      </c>
+      <c r="V25" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="W25" s="27">
+        <f t="shared" ref="W25:AC31" si="0" xml:space="preserve"> (2*N25*N12)/(N25+N12)</f>
+        <v>0.7050657243816254</v>
+      </c>
+      <c r="X25" s="27">
+        <f t="shared" si="0"/>
+        <v>0.70034212401995721</v>
+      </c>
+      <c r="Y25" s="27">
+        <f t="shared" si="0"/>
+        <v>0.70079457917261057</v>
+      </c>
+      <c r="Z25" s="32">
+        <f t="shared" si="0"/>
+        <v>0.70345700071073192</v>
+      </c>
+      <c r="AA25" s="27">
+        <f t="shared" si="0"/>
+        <v>0.69742693409742129</v>
+      </c>
+      <c r="AB25" s="27">
+        <f t="shared" si="0"/>
+        <v>0.69423994252873578</v>
+      </c>
+      <c r="AC25" s="27">
+        <f t="shared" si="0"/>
+        <v>0.7031750531537917</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="M26" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="N26" s="27">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="O26" s="27">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="P26" s="27">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="Q26" s="27">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="R26" s="27">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="S26" s="27">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="T26" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="V26" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="W26" s="27">
+        <f t="shared" si="0"/>
+        <v>0.70384560906515592</v>
+      </c>
+      <c r="X26" s="27">
+        <f t="shared" si="0"/>
+        <v>0.69603012912482065</v>
+      </c>
+      <c r="Y26" s="27">
+        <f t="shared" si="0"/>
+        <v>0.70175925925925919</v>
+      </c>
+      <c r="Z26" s="27">
+        <f t="shared" si="0"/>
+        <v>0.69579310344827594</v>
+      </c>
+      <c r="AA26" s="27">
+        <f t="shared" si="0"/>
+        <v>0.69901072194424585</v>
+      </c>
+      <c r="AB26" s="27">
+        <f t="shared" si="0"/>
+        <v>0.69589103942652331</v>
+      </c>
+      <c r="AC26" s="27">
+        <f t="shared" si="0"/>
+        <v>0.69814682822523166</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="M27" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="N27" s="27">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="O27" s="27">
+        <v>0.67</v>
+      </c>
+      <c r="P27" s="27">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="Q27" s="27">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="R27" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="S27" s="27">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="T27" s="27">
+        <v>0.747</v>
+      </c>
+      <c r="V27" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="W27" s="27">
+        <f t="shared" si="0"/>
+        <v>0.68218270571827055</v>
+      </c>
+      <c r="X27" s="27">
+        <f t="shared" si="0"/>
+        <v>0.70054131054131052</v>
+      </c>
+      <c r="Y27" s="27">
+        <f t="shared" si="0"/>
+        <v>0.67335994297933</v>
+      </c>
+      <c r="Z27" s="27">
+        <f t="shared" si="0"/>
+        <v>0.70097717546362337</v>
+      </c>
+      <c r="AA27" s="27">
+        <f t="shared" si="0"/>
+        <v>0.70324857954545461</v>
+      </c>
+      <c r="AB27" s="27">
+        <f t="shared" si="0"/>
+        <v>0.67769549678341656</v>
+      </c>
+      <c r="AC27" s="27">
+        <f t="shared" si="0"/>
+        <v>0.6962744817726948</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="M28" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="N28" s="27">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="O28" s="27">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="P28" s="27">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="Q28" s="27">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="R28" s="27">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="S28" s="27">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="T28" s="27">
+        <v>0.746</v>
+      </c>
+      <c r="V28" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="W28" s="27">
+        <f t="shared" si="0"/>
+        <v>0.70582921665490483</v>
+      </c>
+      <c r="X28" s="27">
+        <f t="shared" si="0"/>
+        <v>0.69857040743388132</v>
+      </c>
+      <c r="Y28" s="27">
+        <f t="shared" si="0"/>
+        <v>0.70444002838892839</v>
+      </c>
+      <c r="Z28" s="27">
+        <f t="shared" si="0"/>
+        <v>0.68095909732016924</v>
+      </c>
+      <c r="AA28" s="27">
+        <f t="shared" si="0"/>
+        <v>0.70090092658588743</v>
+      </c>
+      <c r="AB28" s="27">
+        <f t="shared" si="0"/>
+        <v>0.6985981441827267</v>
+      </c>
+      <c r="AC28" s="27">
+        <f t="shared" si="0"/>
+        <v>0.69697714285714296</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="M29" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="N29" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="O29" s="27">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="P29" s="27">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="Q29" s="27">
+        <v>0.71</v>
+      </c>
+      <c r="R29" s="27">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="S29" s="27">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="T29" s="27">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="V29" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="W29" s="27">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="X29" s="27">
+        <f t="shared" si="0"/>
+        <v>0.67182984469952733</v>
+      </c>
+      <c r="Y29" s="27">
+        <f t="shared" si="0"/>
+        <v>0.6738423577793009</v>
+      </c>
+      <c r="Z29" s="27">
+        <f t="shared" si="0"/>
+        <v>0.70037116345467521</v>
+      </c>
+      <c r="AA29" s="27">
+        <f t="shared" si="0"/>
+        <v>0.67603846153846148</v>
+      </c>
+      <c r="AB29" s="27">
+        <f t="shared" si="0"/>
+        <v>0.67592560801144486</v>
+      </c>
+      <c r="AC29" s="27">
+        <f t="shared" si="0"/>
+        <v>0.66879137691237833</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="M30" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="N30" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="O30" s="27">
+        <v>0.503</v>
+      </c>
+      <c r="P30" s="27">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="Q30" s="27">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="R30" s="27">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="S30" s="27">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="T30" s="27">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="V30" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="W30" s="27">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="X30" s="27">
+        <f t="shared" si="0"/>
+        <v>0.66707300736771613</v>
+      </c>
+      <c r="Y30" s="27">
+        <f t="shared" si="0"/>
+        <v>0.66871862068965515</v>
+      </c>
+      <c r="Z30" s="27">
+        <f t="shared" si="0"/>
+        <v>0.67360302197802213</v>
+      </c>
+      <c r="AA30" s="27">
+        <f t="shared" si="0"/>
+        <v>0.67603846153846148</v>
+      </c>
+      <c r="AB30" s="27">
+        <f t="shared" si="0"/>
+        <v>0.69990021382751255</v>
+      </c>
+      <c r="AC30" s="27">
+        <f t="shared" si="0"/>
+        <v>0.67422238163558101</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="M31" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="N31" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="O31" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="P31" s="27">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="Q31" s="27">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="R31" s="27">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="S31" s="27">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="T31" s="27">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="V31" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="W31" s="27">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="X31" s="27">
+        <f t="shared" si="0"/>
+        <v>0.66577540106951871</v>
+      </c>
+      <c r="Y31" s="27">
+        <f t="shared" si="0"/>
+        <v>0.67743909348441922</v>
+      </c>
+      <c r="Z31" s="27">
+        <f t="shared" si="0"/>
+        <v>0.6676341627437794</v>
+      </c>
+      <c r="AA31" s="27">
+        <f t="shared" si="0"/>
+        <v>0.66475991649269317</v>
+      </c>
+      <c r="AB31" s="27">
+        <f t="shared" si="0"/>
+        <v>0.66670532703978413</v>
+      </c>
+      <c r="AC31" s="27">
+        <f t="shared" si="0"/>
+        <v>0.68180539772727267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D37" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N38" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="O38" s="56">
+        <f xml:space="preserve"> S39/(S39+R39)</f>
+        <v>0.99041666666666661</v>
+      </c>
+      <c r="P38" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q38" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="R38" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="S38" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N39" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="O39" s="56">
+        <f xml:space="preserve"> P39/(P39+Q39)</f>
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="P39" s="27">
+        <v>138</v>
+      </c>
+      <c r="Q39" s="27">
+        <v>2262</v>
+      </c>
+      <c r="R39" s="27">
+        <v>23</v>
+      </c>
+      <c r="S39" s="27">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N40" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="O40" s="56">
+        <f xml:space="preserve">  S39/(S39+Q39)</f>
+        <v>0.5123949126967019</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N41" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="O41" s="56">
+        <f xml:space="preserve"> S39/(S39+(Q39+R39)*0.5)</f>
+        <v>0.6753800255718142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="42"/>
+      <c r="D42" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="54"/>
+    </row>
+    <row r="44" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D44" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M44" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="V44" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="M45" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="N45" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="O45" s="71"/>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="71"/>
+      <c r="T45" s="72"/>
+      <c r="V45" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="W45" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="X45" s="71"/>
+      <c r="Y45" s="71"/>
+      <c r="Z45" s="71"/>
+      <c r="AA45" s="71"/>
+      <c r="AB45" s="71"/>
+      <c r="AC45" s="72"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="N46" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="O46" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q46" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="R46" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="S46" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="T46" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="V46" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="W46" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="X46" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y46" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z46" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA46" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB46" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC46" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D47" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="59">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="F47" s="60">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="G47" s="61">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="H47" s="62">
+        <v>28.11</v>
+      </c>
+      <c r="I47" s="62">
+        <v>0.59</v>
+      </c>
+      <c r="J47" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="M47" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="N47" s="27">
+        <v>0.98</v>
+      </c>
+      <c r="O47" s="27">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="P47" s="27">
+        <v>0.874</v>
+      </c>
+      <c r="Q47" s="27">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="R47" s="27">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="S47" s="27">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="T47" s="27">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="V47" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="W47" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="X47" s="27">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="Y47" s="27">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="Z47" s="27">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="AA47" s="27">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="AB47" s="27">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="AC47" s="27">
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D48" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="59">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="F48" s="60">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="G48" s="61">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="H48" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="I48" s="62">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J48" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="M48" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="N48" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="O48" s="27">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="P48" s="27">
+        <v>0.875</v>
+      </c>
+      <c r="Q48" s="27">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="R48" s="27">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="S48" s="27">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="T48" s="27">
+        <v>0.79</v>
+      </c>
+      <c r="V48" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="W48" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="X48" s="27">
+        <v>0.53</v>
+      </c>
+      <c r="Y48" s="27">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="Z48" s="27">
+        <v>0.624</v>
+      </c>
+      <c r="AA48" s="27">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="AB48" s="27">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="AC48" s="27">
+        <v>0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D49" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="59">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="F49" s="60">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="G49" s="61">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="H49" s="62">
+        <v>2.06</v>
+      </c>
+      <c r="I49" s="62">
+        <v>0.87</v>
+      </c>
+      <c r="J49" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="M49" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="N49" s="27">
+        <v>1</v>
+      </c>
+      <c r="O49" s="27">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="P49" s="27">
+        <v>0.97</v>
+      </c>
+      <c r="Q49" s="30">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="R49" s="27">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="S49" s="27">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="T49" s="68">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="V49" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="W49" s="27">
+        <v>0</v>
+      </c>
+      <c r="X49" s="27">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="Y49" s="27">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="Z49" s="30">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="AA49" s="27">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="AB49" s="27">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="AC49" s="68">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C50" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="59">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="F50" s="60">
+        <v>0.8</v>
+      </c>
+      <c r="G50" s="61">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="H50" s="62">
+        <v>1.35</v>
+      </c>
+      <c r="I50" s="62">
+        <v>0.33</v>
+      </c>
+      <c r="J50" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="M50" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="N50" s="27">
+        <v>1</v>
+      </c>
+      <c r="O50" s="27">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="P50" s="27">
+        <v>0.875</v>
+      </c>
+      <c r="Q50" s="27">
+        <v>0.92</v>
+      </c>
+      <c r="R50" s="27">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="S50" s="27">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="T50" s="27">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="V50" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="W50" s="27">
+        <v>0</v>
+      </c>
+      <c r="X50" s="27">
+        <v>6.3E-2</v>
+      </c>
+      <c r="Y50" s="27">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="Z50" s="27">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="AA50" s="27">
+        <v>0.157</v>
+      </c>
+      <c r="AB50" s="27">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="AC50" s="27">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C51" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="59">
+        <v>0.753</v>
+      </c>
+      <c r="F51" s="60">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="G51" s="61">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="H51" s="62">
+        <v>15.5</v>
+      </c>
+      <c r="I51" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="J51" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="M51" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="N51" s="27">
+        <v>1</v>
+      </c>
+      <c r="O51" s="27">
+        <v>1</v>
+      </c>
+      <c r="P51" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="27">
+        <v>1</v>
+      </c>
+      <c r="R51" s="27">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="S51" s="27">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="T51" s="27">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="V51" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="W51" s="27">
+        <v>0</v>
+      </c>
+      <c r="X51" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="27">
+        <v>0.16</v>
+      </c>
+      <c r="AB51" s="27">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="AC51" s="27">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C52" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="59">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="F52" s="60">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="G52" s="61">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="H52" s="62">
+        <v>99.4</v>
+      </c>
+      <c r="I52" s="62">
+        <v>0.86</v>
+      </c>
+      <c r="J52" s="65"/>
+      <c r="M52" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="N52" s="27">
+        <v>1</v>
+      </c>
+      <c r="O52" s="27">
+        <v>1</v>
+      </c>
+      <c r="P52" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="27">
+        <v>1</v>
+      </c>
+      <c r="R52" s="27">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="S52" s="27">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="T52" s="27">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="V52" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="W52" s="27">
+        <v>0</v>
+      </c>
+      <c r="X52" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="27">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AB52" s="27">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="AC52" s="27">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D53" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="73">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="F53" s="63">
+        <v>0.751</v>
+      </c>
+      <c r="G53" s="73">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="H53" s="63">
+        <v>102.57</v>
+      </c>
+      <c r="I53" s="63">
+        <v>596.65</v>
+      </c>
+      <c r="J53" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="M53" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="N53" s="27">
+        <v>1</v>
+      </c>
+      <c r="O53" s="27">
+        <v>1</v>
+      </c>
+      <c r="P53" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="27">
+        <v>1</v>
+      </c>
+      <c r="R53" s="27">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="S53" s="27">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="T53" s="27">
+        <v>0.995</v>
+      </c>
+      <c r="V53" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="W53" s="27">
+        <v>0</v>
+      </c>
+      <c r="X53" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="27">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AB53" s="27">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AC53" s="27">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D54" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="73">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="F54" s="63">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="G54" s="73">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="H54" s="63">
+        <v>145.97</v>
+      </c>
+      <c r="I54" s="63">
+        <v>635.08000000000004</v>
+      </c>
+      <c r="J54" s="67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D56" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="3:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C57" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="59">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F57" s="60">
+        <v>0.61</v>
+      </c>
+      <c r="G57" s="61">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H57" s="62">
+        <v>1.26</v>
+      </c>
+      <c r="I57" s="62">
+        <v>0.33</v>
+      </c>
+      <c r="J57" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="M57" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="V57" s="58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D58" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="59">
+        <v>0.6</v>
+      </c>
+      <c r="F58" s="60">
+        <v>0.8</v>
+      </c>
+      <c r="G58" s="61">
+        <v>0.67</v>
+      </c>
+      <c r="H58" s="35">
+        <v>0.06</v>
+      </c>
+      <c r="I58" s="62">
+        <v>0.02</v>
+      </c>
+      <c r="J58" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M58" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="N58" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="O58" s="71"/>
+      <c r="P58" s="71"/>
+      <c r="Q58" s="71"/>
+      <c r="R58" s="71"/>
+      <c r="S58" s="71"/>
+      <c r="T58" s="72"/>
+      <c r="V58" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="W58" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="X58" s="71"/>
+      <c r="Y58" s="71"/>
+      <c r="Z58" s="71"/>
+      <c r="AA58" s="71"/>
+      <c r="AB58" s="71"/>
+      <c r="AC58" s="72"/>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D59" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="59">
+        <v>0.68</v>
+      </c>
+      <c r="F59" s="38">
+        <v>0.78</v>
+      </c>
+      <c r="G59" s="37">
+        <v>0.71</v>
+      </c>
+      <c r="H59" s="62">
+        <v>0.21</v>
+      </c>
+      <c r="I59" s="62">
+        <v>0.12</v>
+      </c>
+      <c r="J59" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M59" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="N59" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="O59" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q59" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="R59" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="S59" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="T59" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="V59" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="W59" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="X59" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y59" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z59" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA59" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB59" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC59" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C60" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="59">
+        <v>0.39</v>
+      </c>
+      <c r="F60" s="60">
+        <v>0.9</v>
+      </c>
+      <c r="G60" s="61">
+        <v>0.53</v>
+      </c>
+      <c r="H60" s="62">
+        <v>0.33</v>
+      </c>
+      <c r="I60" s="62">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J60" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="M60" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="N60" s="27">
+        <v>0.52</v>
+      </c>
+      <c r="O60" s="27">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="P60" s="27">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="Q60" s="66">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="R60" s="27">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="S60" s="27">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="T60" s="27">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="V60" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="W60" s="27">
+        <f t="shared" ref="W60:W66" si="1" xml:space="preserve"> (2*N60*N47)/(N60+N47)</f>
+        <v>0.67946666666666677</v>
+      </c>
+      <c r="X60" s="27">
+        <f t="shared" ref="X60:X66" si="2" xml:space="preserve"> (2*O60*O47)/(O60+O47)</f>
+        <v>0.75780038634900204</v>
+      </c>
+      <c r="Y60" s="27">
+        <f t="shared" ref="Y60:Y65" si="3" xml:space="preserve"> (2*P60*P47)/(P60+P47)</f>
+        <v>0.7604421460892048</v>
+      </c>
+      <c r="Z60" s="66">
+        <f t="shared" ref="Z60:Z66" si="4" xml:space="preserve"> (2*Q60*Q47)/(Q60+Q47)</f>
+        <v>0.75926514657980448</v>
+      </c>
+      <c r="AA60" s="27">
+        <f t="shared" ref="AA60:AA66" si="5" xml:space="preserve"> (2*R60*R47)/(R60+R47)</f>
+        <v>0.76130026109660565</v>
+      </c>
+      <c r="AB60" s="27">
+        <f t="shared" ref="AB60:AB66" si="6" xml:space="preserve"> (2*S60*S47)/(S60+S47)</f>
+        <v>0.76142315238718117</v>
+      </c>
+      <c r="AC60" s="27">
+        <f t="shared" ref="AC60:AC66" si="7" xml:space="preserve"> (2*T60*T47)/(T60+T47)</f>
+        <v>0.75738603425559947</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C61" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="39">
+        <v>0.74</v>
+      </c>
+      <c r="F61" s="60">
+        <v>0.6</v>
+      </c>
+      <c r="G61" s="61">
+        <v>0.69</v>
+      </c>
+      <c r="H61" s="62">
+        <v>3.29</v>
+      </c>
+      <c r="I61" s="35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J61" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="M61" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="N61" s="27">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="O61" s="27">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="P61" s="27">
+        <v>0.68</v>
+      </c>
+      <c r="Q61" s="27">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="R61" s="27">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="S61" s="27">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="T61" s="27">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="V61" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="W61" s="27">
+        <f t="shared" si="1"/>
+        <v>0.67494007989347538</v>
+      </c>
+      <c r="X61" s="27">
+        <f t="shared" si="2"/>
+        <v>0.75913311897106106</v>
+      </c>
+      <c r="Y61" s="27">
+        <f t="shared" si="3"/>
+        <v>0.76527331189710612</v>
+      </c>
+      <c r="Z61" s="27">
+        <f t="shared" si="4"/>
+        <v>0.76128998699609884</v>
+      </c>
+      <c r="AA61" s="27">
+        <f t="shared" si="5"/>
+        <v>0.7631549479166666</v>
+      </c>
+      <c r="AB61" s="27">
+        <f t="shared" si="6"/>
+        <v>0.68390316072629453</v>
+      </c>
+      <c r="AC61" s="27">
+        <f t="shared" si="7"/>
+        <v>0.77262613195342822</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C62" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="59">
+        <v>0.6</v>
+      </c>
+      <c r="F62" s="60">
+        <v>0.68</v>
+      </c>
+      <c r="G62" s="61">
+        <v>0.62</v>
+      </c>
+      <c r="H62" s="62">
+        <v>99.83</v>
+      </c>
+      <c r="I62" s="62">
+        <v>3.61</v>
+      </c>
+      <c r="J62" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="N62" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="O62" s="27">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="P62" s="27">
+        <v>0.53</v>
+      </c>
+      <c r="Q62" s="30">
+        <v>0.7</v>
+      </c>
+      <c r="R62" s="27">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="S62" s="27">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="T62" s="68">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="V62" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="W62" s="27">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="X62" s="27">
+        <f t="shared" si="2"/>
+        <v>0.70662466843501315</v>
+      </c>
+      <c r="Y62" s="27">
+        <f t="shared" si="3"/>
+        <v>0.68546666666666667</v>
+      </c>
+      <c r="Z62" s="30">
+        <f t="shared" si="4"/>
+        <v>0.76692506459948306</v>
+      </c>
+      <c r="AA62" s="27">
+        <f t="shared" si="5"/>
+        <v>0.76098172323759783</v>
+      </c>
+      <c r="AB62" s="27">
+        <f t="shared" si="6"/>
+        <v>0.71339559706470979</v>
+      </c>
+      <c r="AC62" s="68">
+        <f t="shared" si="7"/>
+        <v>0.76148492791612055</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D63" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="G63" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="H63" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="I63" s="63">
+        <v>645.04</v>
+      </c>
+      <c r="J63" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="M63" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="N63" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="O63" s="27">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="P63" s="27">
+        <v>0.68</v>
+      </c>
+      <c r="Q63" s="27">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="R63" s="27">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="S63" s="27">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="T63" s="27">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="V63" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="W63" s="27">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="X63" s="27">
+        <f t="shared" si="2"/>
+        <v>0.67487391594396262</v>
+      </c>
+      <c r="Y63" s="27">
+        <f t="shared" si="3"/>
+        <v>0.76527331189710612</v>
+      </c>
+      <c r="Z63" s="27">
+        <f t="shared" si="4"/>
+        <v>0.70769230769230773</v>
+      </c>
+      <c r="AA63" s="27">
+        <f t="shared" si="5"/>
+        <v>0.68199865229110512</v>
+      </c>
+      <c r="AB63" s="27">
+        <f t="shared" si="6"/>
+        <v>0.75812491781722557</v>
+      </c>
+      <c r="AC63" s="27">
+        <f t="shared" si="7"/>
+        <v>0.75581109643328936</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="M64" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="N64" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="O64" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="P64" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="Q64" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="R64" s="27">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="S64" s="27">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="T64" s="27">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="V64" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="W64" s="27">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="X64" s="27">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Y64" s="27">
+        <f xml:space="preserve"> (2*P64*P51)/(P64+P51)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z64" s="27">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA64" s="27">
+        <f t="shared" si="5"/>
+        <v>0.68333557498318753</v>
+      </c>
+      <c r="AB64" s="27">
+        <f t="shared" si="6"/>
+        <v>0.75957349081364833</v>
+      </c>
+      <c r="AC64" s="27">
+        <f t="shared" si="7"/>
+        <v>0.75326706428098078</v>
+      </c>
+    </row>
+    <row r="65" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="M65" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="N65" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="O65" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="P65" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="Q65" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="R65" s="27">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="S65" s="27">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="T65" s="27">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="V65" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="W65" s="27">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="X65" s="27">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Y65" s="27">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z65" s="27">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA65" s="27">
+        <f t="shared" si="5"/>
+        <v>0.67642274247491641</v>
+      </c>
+      <c r="AB65" s="27">
+        <f t="shared" si="6"/>
+        <v>0.67470864032150035</v>
+      </c>
+      <c r="AC65" s="27">
+        <f t="shared" si="7"/>
+        <v>0.6805332428765265</v>
+      </c>
+    </row>
+    <row r="66" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="M66" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="N66" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="O66" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="P66" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="Q66" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="R66" s="27">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="S66" s="27">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="T66" s="27">
+        <v>0.505</v>
+      </c>
+      <c r="V66" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="W66" s="27">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="X66" s="27">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Y66" s="27">
+        <f xml:space="preserve"> (2*P66*P53)/(P66+P53)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z66" s="27">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA66" s="27">
+        <f t="shared" si="5"/>
+        <v>0.67642274247491641</v>
+      </c>
+      <c r="AB66" s="27">
+        <f t="shared" si="6"/>
+        <v>0.67351478494623651</v>
+      </c>
+      <c r="AC66" s="27">
+        <f t="shared" si="7"/>
+        <v>0.66996666666666671</v>
+      </c>
+    </row>
+    <row r="68" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="W58:AC58"/>
+    <mergeCell ref="N45:T45"/>
+    <mergeCell ref="W10:AC10"/>
+    <mergeCell ref="W23:AC23"/>
+    <mergeCell ref="N58:T58"/>
+    <mergeCell ref="N10:T10"/>
+    <mergeCell ref="N23:T23"/>
+    <mergeCell ref="W45:AC45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>